--- a/results/results_formatted/evaluation_freeRoaming_run2_formatted.xlsx
+++ b/results/results_formatted/evaluation_freeRoaming_run2_formatted.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\results (free roaming)\editted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HaZa\Music\APP-RAS paper results\analysis\results (free roaming)\formatted\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A749BB-55EA-44AE-AD5B-B7D4CFEAB8EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="evaluation_freeRoaming_run2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="29">
   <si>
     <t>charging</t>
   </si>
@@ -92,11 +101,26 @@
   <si>
     <t>Final Battery level (battery when task finished)</t>
   </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>Waiting Time</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Charging</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,8 +437,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -529,6 +559,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -574,9 +619,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -897,30 +948,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87:H89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -961,7 +1012,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,7 +1044,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1025,7 +1076,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1108,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1098,7 +1149,7 @@
         <v>70.25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1130,7 +1181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1171,7 +1222,7 @@
         <v>66.14</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1212,7 +1263,7 @@
         <v>66.2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1253,7 +1304,7 @@
         <v>59.8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1294,7 +1345,7 @@
         <v>78.44</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1335,7 +1386,7 @@
         <v>54.17</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1376,7 +1427,7 @@
         <v>32.54</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1408,7 +1459,7 @@
         <v>14.45</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -1449,7 +1500,7 @@
         <v>30.57</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1490,7 +1541,7 @@
         <v>25.95</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -1531,7 +1582,7 @@
         <v>47.36</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1572,7 +1623,7 @@
         <v>58.26</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -1613,7 +1664,7 @@
         <v>44.38</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -1654,7 +1705,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1686,7 +1737,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1718,7 +1769,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -1759,7 +1810,7 @@
         <v>73.790000000000006</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -1800,7 +1851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -1841,7 +1892,7 @@
         <v>14.41</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -1882,7 +1933,7 @@
         <v>27.18</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
@@ -1923,7 +1974,7 @@
         <v>24.59</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -1964,7 +2015,7 @@
         <v>38.61</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -2005,7 +2056,7 @@
         <v>68.180000000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -2046,7 +2097,7 @@
         <v>49.32</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -2078,7 +2129,7 @@
         <v>27.85</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -2110,7 +2161,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -2151,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -2192,7 +2243,7 @@
         <v>65.959999999999994</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -2233,7 +2284,7 @@
         <v>7.16</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
@@ -2274,7 +2325,7 @@
         <v>27.47</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -2315,7 +2366,7 @@
         <v>32.44</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
@@ -2356,7 +2407,7 @@
         <v>65.19</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -2388,7 +2439,7 @@
         <v>30.25</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
@@ -2429,7 +2480,7 @@
         <v>60.51</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -2461,7 +2512,7 @@
         <v>23.01</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -2493,7 +2544,7 @@
         <v>28.65</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -2534,7 +2585,7 @@
         <v>24.82</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>4</v>
       </c>
@@ -2575,7 +2626,7 @@
         <v>52.45</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>4</v>
       </c>
@@ -2616,7 +2667,7 @@
         <v>4.53</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
@@ -2657,7 +2708,7 @@
         <v>64.59</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
@@ -2698,7 +2749,7 @@
         <v>27.71</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>4</v>
       </c>
@@ -2739,7 +2790,7 @@
         <v>80.2</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -2771,7 +2822,7 @@
         <v>28.41</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -2812,7 +2863,7 @@
         <v>27.28</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>4</v>
       </c>
@@ -2853,7 +2904,7 @@
         <v>71.47</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -2894,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>4</v>
       </c>
@@ -2935,7 +2986,7 @@
         <v>25.37</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>4</v>
       </c>
@@ -2976,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -3008,7 +3059,7 @@
         <v>29.96</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>4</v>
       </c>
@@ -3049,7 +3100,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>4</v>
       </c>
@@ -3090,7 +3141,7 @@
         <v>71.28</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>4</v>
       </c>
@@ -3131,7 +3182,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>4</v>
       </c>
@@ -3172,7 +3223,7 @@
         <v>29.81</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>4</v>
       </c>
@@ -3213,7 +3264,7 @@
         <v>25.97</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>4</v>
       </c>
@@ -3254,7 +3305,7 @@
         <v>36.76</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -3286,7 +3337,7 @@
         <v>28.65</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -3318,7 +3369,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -3350,7 +3401,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>4</v>
       </c>
@@ -3391,7 +3442,7 @@
         <v>61.52</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>4</v>
       </c>
@@ -3432,7 +3483,7 @@
         <v>39.81</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>4</v>
       </c>
@@ -3473,7 +3524,7 @@
         <v>11.77</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>4</v>
       </c>
@@ -3514,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>4</v>
       </c>
@@ -3555,7 +3606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>4</v>
       </c>
@@ -3596,7 +3647,7 @@
         <v>71.44</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>4</v>
       </c>
@@ -3637,7 +3688,7 @@
         <v>59.23</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -3669,7 +3720,7 @@
         <v>28.05</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>4</v>
       </c>
@@ -3710,7 +3761,7 @@
         <v>75.069999999999993</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>4</v>
       </c>
@@ -3751,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>4</v>
       </c>
@@ -3792,7 +3843,7 @@
         <v>19.52</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
@@ -3824,7 +3875,7 @@
         <v>28.65</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>4</v>
       </c>
@@ -3865,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>10</v>
       </c>
@@ -3876,7 +3927,7 @@
         <v>205.82</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>10</v>
       </c>
@@ -3887,7 +3938,7 @@
         <v>237.89</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>10</v>
       </c>
@@ -3898,7 +3949,7 @@
         <v>179.48</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>10</v>
       </c>
@@ -3909,7 +3960,7 @@
         <v>176.16</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>10</v>
       </c>
@@ -3920,7 +3971,7 @@
         <v>233.75</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>10</v>
       </c>
@@ -3931,7 +3982,7 @@
         <v>185.34</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>10</v>
       </c>
@@ -3942,7 +3993,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>10</v>
       </c>
@@ -3951,6 +4002,54 @@
       </c>
       <c r="C84">
         <v>254.66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E88" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F88" s="3">
+        <f>COUNTIF(A2:A76,"transportation")</f>
+        <v>56</v>
+      </c>
+      <c r="G88" s="3">
+        <f>AVERAGEIF(A2:A76,"transportation",F2:F76)</f>
+        <v>137.90625</v>
+      </c>
+      <c r="H88" s="3">
+        <f>AVERAGEIF(A2:A76,"transportation",H2:H76)</f>
+        <v>74.217678571428578</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E89" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F89" s="3">
+        <f>COUNTIF(A2:A76,"charging")</f>
+        <v>19</v>
+      </c>
+      <c r="G89" s="3">
+        <f>AVERAGEIF(A2:A76,"charging",F2:F76)</f>
+        <v>39.931578947368422</v>
+      </c>
+      <c r="H89" s="3">
+        <f>AVERAGEIF(A2:A76,"charging",H2:H76)</f>
+        <v>0.29842105263157892</v>
       </c>
     </row>
   </sheetData>
